--- a/outputs-HGR-r202-archive/g__51-20_train.xlsx
+++ b/outputs-HGR-r202-archive/g__51-20_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,20 +810,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_1.fasta</t>
+          <t>label_UMGS148_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9984119000515647</v>
+        <v>0.9999977809718313</v>
       </c>
       <c r="C13" t="n">
-        <v>4.85235370022491e-07</v>
+        <v>2.219028146486867e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001587614713065329</v>
+        <v>2.220444457937928e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9984119000515647</v>
+        <v>0.9999977809718313</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -834,20 +834,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_13.fasta</t>
+          <t>label_UMGS148_22.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9990594191030832</v>
+        <v>0.9966953811738877</v>
       </c>
       <c r="C14" t="n">
-        <v>4.871199175617373e-05</v>
+        <v>0.003304618826090136</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008918689051607365</v>
+        <v>2.21981454913893e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990594191030832</v>
+        <v>0.9966953811738877</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_16.fasta</t>
+          <t>label_UMGS148_25.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9986647967858981</v>
+        <v>0.9999542248876122</v>
       </c>
       <c r="C15" t="n">
-        <v>8.510519950570751e-06</v>
+        <v>4.577511236567409e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001326692694151335</v>
+        <v>2.220413007275531e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9986647967858981</v>
+        <v>0.9999542248876122</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_29.fasta</t>
+          <t>label_UMGS148_35.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9262590313455289</v>
+        <v>0.9999974732003699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07336405733429802</v>
+        <v>2.526799607784755e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003769113201731512</v>
+        <v>2.220444245230215e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9262590313455289</v>
+        <v>0.9999974732003699</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_32.fasta</t>
+          <t>label_UMGS148_39.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.997640595562969</v>
+        <v>0.9308780680563058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001911041559687205</v>
+        <v>0.06912193194367194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004483628773437005</v>
+        <v>2.219894751223504e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.997640595562969</v>
+        <v>0.9308780680563058</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_4.fasta</t>
+          <t>label_UMGS148_40.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.998959499404236</v>
+        <v>0.8280996526234126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009901605561491948</v>
+        <v>0.1719003473765653</v>
       </c>
       <c r="D18" t="n">
-        <v>5.034003961470763e-05</v>
+        <v>2.22004342397855e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998959499404236</v>
+        <v>0.8280996526234126</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_7.fasta</t>
+          <t>label_UMGS148_10.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997479661071927</v>
+        <v>0.8716296270470126</v>
       </c>
       <c r="C19" t="n">
-        <v>4.10961122629645e-05</v>
+        <v>0.1279990044757262</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002109377805442759</v>
+        <v>0.0003713684772611609</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997479661071927</v>
+        <v>0.8716296270470126</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_9.fasta</t>
+          <t>label_UMGS148_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9994297431824478</v>
+        <v>0.6186941826279051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002029652846729238</v>
+        <v>0.3805790573685089</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0003672915328791694</v>
+        <v>0.0007267600035858802</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9994297431824478</v>
+        <v>0.6186941826279051</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_0.fasta</t>
+          <t>label_UMGS148_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999977809718313</v>
+        <v>0.9984797526923865</v>
       </c>
       <c r="C21" t="n">
-        <v>2.219028146486867e-06</v>
+        <v>1.379837832827866e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220444457937928e-14</v>
+        <v>0.001506448929285147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999977809718313</v>
+        <v>0.9984797526923865</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_22.fasta</t>
+          <t>label_UMGS148_17.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9966953811738877</v>
+        <v>0.9986409511104193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003304618826090136</v>
+        <v>0.0005544098650296661</v>
       </c>
       <c r="D22" t="n">
-        <v>2.21981454913893e-14</v>
+        <v>0.0008046390245509111</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9966953811738877</v>
+        <v>0.9986409511104193</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_25.fasta</t>
+          <t>label_UMGS148_18.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999542248876122</v>
+        <v>0.9974697314412567</v>
       </c>
       <c r="C23" t="n">
-        <v>4.577511236567409e-05</v>
+        <v>9.710533681399351e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220413007275531e-14</v>
+        <v>0.002529297505375157</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999542248876122</v>
+        <v>0.9974697314412567</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_35.fasta</t>
+          <t>label_UMGS148_37.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999974732003699</v>
+        <v>0.9941263917182761</v>
       </c>
       <c r="C24" t="n">
-        <v>2.526799607784755e-06</v>
+        <v>0.005334058107782829</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220444245230215e-14</v>
+        <v>0.0005395501739410515</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999974732003699</v>
+        <v>0.9941263917182761</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_39.fasta</t>
+          <t>label_UMGS148_41.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9308780680563058</v>
+        <v>0.9999531369404646</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06912193194367194</v>
+        <v>3.80696120710823e-12</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219894751223504e-14</v>
+        <v>4.686305572840662e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9308780680563058</v>
+        <v>0.9999531369404646</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_40.fasta</t>
+          <t>label_UMGS148_5.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8280996526234126</v>
+        <v>0.9981696942278933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1719003473765653</v>
+        <v>0.001454233697796175</v>
       </c>
       <c r="D26" t="n">
-        <v>2.22004342397855e-14</v>
+        <v>0.0003760720743105627</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8280996526234126</v>
+        <v>0.9981696942278933</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1146,20 +1146,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_10.fasta</t>
+          <t>label_UMGS148_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8716296270470126</v>
+        <v>0.9986386039070726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1279990044757262</v>
+        <v>6.962628108705909e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003713684772611609</v>
+        <v>0.001291769811840367</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8716296270470126</v>
+        <v>0.9986386039070726</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_12.fasta</t>
+          <t>label_UMGS148_15.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6186941826279051</v>
+        <v>0.9931520882275184</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3805790573685089</v>
+        <v>7.847126458924536e-08</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0007267600035858802</v>
+        <v>0.006847833301217055</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6186941826279051</v>
+        <v>0.9931520882275184</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1194,20 +1194,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_14.fasta</t>
+          <t>label_UMGS148_2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9984797526923865</v>
+        <v>0.9976438139642769</v>
       </c>
       <c r="C29" t="n">
-        <v>1.379837832827866e-05</v>
+        <v>2.473112936946701e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001506448929285147</v>
+        <v>0.00235371292278614</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9984797526923865</v>
+        <v>0.9976438139642769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_17.fasta</t>
+          <t>label_UMGS148_20.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9986409511104193</v>
+        <v>0.9964018250723857</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005544098650296661</v>
+        <v>1.641063679672225e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0008046390245509111</v>
+        <v>0.003598010821246299</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9986409511104193</v>
+        <v>0.9964018250723857</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_18.fasta</t>
+          <t>label_UMGS148_23.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9974697314412567</v>
+        <v>0.9956791457249226</v>
       </c>
       <c r="C31" t="n">
-        <v>9.710533681399351e-07</v>
+        <v>1.26429393079383e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002529297505375157</v>
+        <v>0.004320727845684292</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9974697314412567</v>
+        <v>0.9956791457249226</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_37.fasta</t>
+          <t>label_UMGS148_24.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9941263917182761</v>
+        <v>0.9973061267630702</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005334058107782829</v>
+        <v>1.517554734978802e-11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005395501739410515</v>
+        <v>0.002693873221754413</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9941263917182761</v>
+        <v>0.9973061267630702</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,20 +1290,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_41.fasta</t>
+          <t>label_UMGS148_26.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9999531369404646</v>
+        <v>0.9977679429954067</v>
       </c>
       <c r="C33" t="n">
-        <v>3.80696120710823e-12</v>
+        <v>1.836456802339404e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>4.686305572840662e-05</v>
+        <v>0.002232038640025291</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999531369404646</v>
+        <v>0.9977679429954067</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1314,20 +1314,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_5.fasta</t>
+          <t>label_UMGS148_30.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9981696942278933</v>
+        <v>0.9971445308838354</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001454233697796175</v>
+        <v>0.001464252551379999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003760720743105627</v>
+        <v>0.001391216564784799</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9981696942278933</v>
+        <v>0.9971445308838354</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1338,20 +1338,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_8.fasta</t>
+          <t>label_UMGS148_31.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9986386039070726</v>
+        <v>0.9985025045550872</v>
       </c>
       <c r="C35" t="n">
-        <v>6.962628108705909e-05</v>
+        <v>2.38308723677668e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001291769811840367</v>
+        <v>0.001497257136189064</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9986386039070726</v>
+        <v>0.9985025045550872</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,44 +1362,44 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_15.fasta</t>
+          <t>label_UMGS148_11.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9931520882275184</v>
+        <v>0.2894650331843369</v>
       </c>
       <c r="C36" t="n">
-        <v>7.847126458924536e-08</v>
+        <v>0.7105349668156364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006847833301217055</v>
+        <v>2.662059685905022e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9931520882275184</v>
+        <v>0.7105349668156364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_2.fasta</t>
+          <t>label_UMGS148_19.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9976438139642769</v>
+        <v>0.9996617972122145</v>
       </c>
       <c r="C37" t="n">
-        <v>2.473112936946701e-06</v>
+        <v>0.0003382027877632301</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00235371292278614</v>
+        <v>2.220196011175352e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9976438139642769</v>
+        <v>0.9996617972122145</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_20.fasta</t>
+          <t>label_UMGS148_21.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9964018250723857</v>
+        <v>0.9999435866202312</v>
       </c>
       <c r="C38" t="n">
-        <v>1.641063679672225e-07</v>
+        <v>5.641337974651029e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003598010821246299</v>
+        <v>2.220404302813575e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9964018250723857</v>
+        <v>0.9999435866202312</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1434,20 +1434,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_23.fasta</t>
+          <t>label_UMGS148_27.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9956791457249226</v>
+        <v>0.9976218643712212</v>
       </c>
       <c r="C39" t="n">
-        <v>1.26429393079383e-07</v>
+        <v>0.002378135628756583</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004320727845684292</v>
+        <v>2.219808675419013e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9956791457249226</v>
+        <v>0.9976218643712212</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1458,20 +1458,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_24.fasta</t>
+          <t>label_UMGS148_28.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9973061267630702</v>
+        <v>0.9878960590195922</v>
       </c>
       <c r="C40" t="n">
-        <v>1.517554734978802e-11</v>
+        <v>0.0121039409803855</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002693873221754413</v>
+        <v>2.219830781213815e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9973061267630702</v>
+        <v>0.9878960590195922</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,20 +1482,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_26.fasta</t>
+          <t>label_UMGS148_3.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9977679429954067</v>
+        <v>0.9997883976697884</v>
       </c>
       <c r="C41" t="n">
-        <v>1.836456802339404e-08</v>
+        <v>0.0002116023301892541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002232038640025291</v>
+        <v>2.220289542551476e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9977679429954067</v>
+        <v>0.9997883976697884</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1506,20 +1506,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_30.fasta</t>
+          <t>label_UMGS148_33.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9971445308838354</v>
+        <v>0.9496759913200068</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001464252551379999</v>
+        <v>0.05032400867997106</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001391216564784799</v>
+        <v>2.219879690017756e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9971445308838354</v>
+        <v>0.9496759913200068</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1530,44 +1530,44 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_31.fasta</t>
+          <t>label_UMGS148_34.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9985025045550872</v>
+        <v>0.3041073309668603</v>
       </c>
       <c r="C43" t="n">
-        <v>2.38308723677668e-07</v>
+        <v>0.6958926690331052</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001497257136189064</v>
+        <v>3.437900601098831e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9985025045550872</v>
+        <v>0.6958926690331052</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_11.fasta</t>
+          <t>label_UMGS148_36.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2894650331843369</v>
+        <v>0.329961292242678</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7105349668156364</v>
+        <v>0.6700387077572709</v>
       </c>
       <c r="D44" t="n">
-        <v>2.662059685905022e-14</v>
+        <v>5.106677173990367e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7105349668156364</v>
+        <v>0.6700387077572709</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_19.fasta</t>
+          <t>label_UMGS148_38.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9996617972122145</v>
+        <v>0.9997031895017648</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0003382027877632301</v>
+        <v>0.0002968104982130276</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220196011175352e-14</v>
+        <v>2.220226582750744e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9996617972122145</v>
+        <v>0.9997031895017648</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1602,214 +1602,22 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS148_21.fasta</t>
+          <t>label_UMGS148_6.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999435866202312</v>
+        <v>0.9996565044971626</v>
       </c>
       <c r="C46" t="n">
-        <v>5.641337974651029e-05</v>
+        <v>0.0003434955028151032</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220404302813575e-14</v>
+        <v>2.220192102684518e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9999435866202312</v>
+        <v>0.9996565044971626</v>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_27.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.9976218643712212</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.002378135628756583</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.219808675419013e-14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.9976218643712212</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_28.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9878960590195922</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0121039409803855</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.219830781213815e-14</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9878960590195922</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_3.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.9997883976697884</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0002116023301892541</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.220289542551476e-14</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.9997883976697884</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_33.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.9496759913200068</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.05032400867997106</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.219879690017756e-14</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9496759913200068</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_34.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.3041073309668603</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.6958926690331052</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.437900601098831e-14</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.6958926690331052</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_36.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.329961292242678</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.6700387077572709</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5.106677173990367e-14</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.6700387077572709</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_38.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9997031895017648</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0002968104982130276</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.220226582750744e-14</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.9997031895017648</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS148_6.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9996565044971626</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.0003434955028151032</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.220192102684518e-14</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9996565044971626</v>
-      </c>
-      <c r="F54" t="inlineStr">
         <is>
           <t>s__51-20 sp001917175</t>
         </is>
@@ -1826,7 +1634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,20 +1821,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_18.fasta</t>
+          <t>label_UMGS149_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001123842376470304</v>
+        <v>0.001038002472717879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9987267400384355</v>
+        <v>0.9979382215832119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001494175850942478</v>
+        <v>0.001023775944070214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9987267400384355</v>
+        <v>0.9979382215832119</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2037,44 +1845,44 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_29.fasta</t>
+          <t>label_UMGS149_12.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001226744331321994</v>
+        <v>0.07061906817538935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9977527491542925</v>
+        <v>0.350436176774904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001020506514385604</v>
+        <v>0.5789447550497068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9977527491542925</v>
+        <v>0.5789447550497068</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp900542055</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_32.fasta</t>
+          <t>label_UMGS149_13.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01209576708475733</v>
+        <v>0.001077555140770326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9876110685504771</v>
+        <v>0.9989224448584844</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002931643647655288</v>
+        <v>7.453013712388123e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9876110685504771</v>
+        <v>0.9989224448584844</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2085,20 +1893,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_37.fasta</t>
+          <t>label_UMGS149_15.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07794555692346</v>
+        <v>0.0004406759573129047</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9217164982433719</v>
+        <v>0.9991198122336029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003379448331682015</v>
+        <v>0.0004395118090842302</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9217164982433719</v>
+        <v>0.9991198122336029</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2109,20 +1917,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_38.fasta</t>
+          <t>label_UMGS149_2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01154488580589883</v>
+        <v>0.0004891971930380669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9879553343738464</v>
+        <v>0.9990222947423454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0004997798202546596</v>
+        <v>0.0004885080646166967</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9879553343738464</v>
+        <v>0.9990222947423454</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2133,20 +1941,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_42.fasta</t>
+          <t>label_UMGS149_20.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002301401992876831</v>
+        <v>0.0004623017739713725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9923601669240257</v>
+        <v>0.9990784885218286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005338431083097453</v>
+        <v>0.0004592097041999548</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9923601669240257</v>
+        <v>0.9990784885218286</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2157,68 +1965,68 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_44.fasta</t>
+          <t>label_UMGS149_27.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001364280446869452</v>
+        <v>2.134736227793634e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9728722829057461</v>
+        <v>0.4443222640343499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02699128904956697</v>
+        <v>0.5556563886033722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9728722829057461</v>
+        <v>0.5556563886033722</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp900542055</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_49.fasta</t>
+          <t>label_UMGS149_31.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8455257461050785</v>
+        <v>0.001193597329549928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1528642870265453</v>
+        <v>0.997623240909311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001609966868376164</v>
+        <v>0.001183161761139109</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8455257461050785</v>
+        <v>0.997623240909311</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_6.fasta</t>
+          <t>label_UMGS149_33.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0003896416588994573</v>
+        <v>0.01629907080529229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9995916267860628</v>
+        <v>0.9837009291927568</v>
       </c>
       <c r="D16" t="n">
-        <v>1.873155503779442e-05</v>
+        <v>1.950912882963365e-12</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9995916267860628</v>
+        <v>0.9837009291927568</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2229,20 +2037,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_8.fasta</t>
+          <t>label_UMGS149_35.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001079745565848625</v>
+        <v>0.00235657290139508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989072521480498</v>
+        <v>0.9976434270978841</v>
       </c>
       <c r="D17" t="n">
-        <v>1.300228610163018e-05</v>
+        <v>7.208038416054603e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9989072521480498</v>
+        <v>0.9976434270978841</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2253,20 +2061,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_1.fasta</t>
+          <t>label_UMGS149_40.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001038002472717879</v>
+        <v>0.005155575299411004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9979382215832119</v>
+        <v>0.9948444246988244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001023775944070214</v>
+        <v>1.76467143195891e-12</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9979382215832119</v>
+        <v>0.9948444246988244</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2277,44 +2085,44 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_12.fasta</t>
+          <t>label_UMGS149_41.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07061906817538935</v>
+        <v>0.002280696345378984</v>
       </c>
       <c r="C19" t="n">
-        <v>0.350436176774904</v>
+        <v>0.9977193036510237</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5789447550497068</v>
+        <v>3.597305843537314e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5789447550497068</v>
+        <v>0.9977193036510237</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>s__51-20 sp900542055</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_13.fasta</t>
+          <t>label_UMGS149_46.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001077555140770326</v>
+        <v>0.08673777666342226</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989224448584844</v>
+        <v>0.9132622230720344</v>
       </c>
       <c r="D20" t="n">
-        <v>7.453013712388123e-13</v>
+        <v>2.645432530605432e-10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9989224448584844</v>
+        <v>0.9132622230720344</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2325,20 +2133,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_15.fasta</t>
+          <t>label_UMGS149_47.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004406759573129047</v>
+        <v>0.07975460103139051</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991198122336029</v>
+        <v>0.9202453989667249</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0004395118090842302</v>
+        <v>1.884582679413166e-12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9991198122336029</v>
+        <v>0.9202453989667249</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2349,20 +2157,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_2.fasta</t>
+          <t>label_UMGS149_48.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004891971930380669</v>
+        <v>0.03892989057613952</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990222947423454</v>
+        <v>0.9610701093864753</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0004885080646166967</v>
+        <v>3.738512055084899e-11</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9990222947423454</v>
+        <v>0.9610701093864753</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2373,20 +2181,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_20.fasta</t>
+          <t>label_UMGS149_10.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0004623017739713725</v>
+        <v>0.001667354584409227</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990784885218286</v>
+        <v>0.9982032318233447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004592097041999548</v>
+        <v>0.0001294135922461294</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9990784885218286</v>
+        <v>0.9982032318233447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2397,44 +2205,44 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_27.fasta</t>
+          <t>label_UMGS149_19.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.134736227793634e-05</v>
+        <v>0.003883353741126807</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4443222640343499</v>
+        <v>0.9959578302323286</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5556563886033722</v>
+        <v>0.0001588160265443861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5556563886033722</v>
+        <v>0.9959578302323286</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>s__51-20 sp900542055</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_31.fasta</t>
+          <t>label_UMGS149_21.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001193597329549928</v>
+        <v>0.02141031298547685</v>
       </c>
       <c r="C25" t="n">
-        <v>0.997623240909311</v>
+        <v>0.9783920320083631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001183161761139109</v>
+        <v>0.0001976550061599947</v>
       </c>
       <c r="E25" t="n">
-        <v>0.997623240909311</v>
+        <v>0.9783920320083631</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2445,20 +2253,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_33.fasta</t>
+          <t>label_UMGS149_25.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01629907080529229</v>
+        <v>0.002059832412304308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9837009291927568</v>
+        <v>0.9977042715642047</v>
       </c>
       <c r="D26" t="n">
-        <v>1.950912882963365e-12</v>
+        <v>0.0002358960234911799</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9837009291927568</v>
+        <v>0.9977042715642047</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2469,20 +2277,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_35.fasta</t>
+          <t>label_UMGS149_34.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00235657290139508</v>
+        <v>0.009461543978582582</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9976434270978841</v>
+        <v>0.9900220180409834</v>
       </c>
       <c r="D27" t="n">
-        <v>7.208038416054603e-13</v>
+        <v>0.000516437980434004</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976434270978841</v>
+        <v>0.9900220180409834</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2493,20 +2301,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_40.fasta</t>
+          <t>label_UMGS149_36.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005155575299411004</v>
+        <v>0.06056772509527114</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9948444246988244</v>
+        <v>0.9390817418596726</v>
       </c>
       <c r="D28" t="n">
-        <v>1.76467143195891e-12</v>
+        <v>0.0003505330450563494</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9948444246988244</v>
+        <v>0.9390817418596726</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2517,20 +2325,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_41.fasta</t>
+          <t>label_UMGS149_4.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002280696345378984</v>
+        <v>0.003858611867364685</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9977193036510237</v>
+        <v>0.9959979924459531</v>
       </c>
       <c r="D29" t="n">
-        <v>3.597305843537314e-12</v>
+        <v>0.000143395686682384</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9977193036510237</v>
+        <v>0.9959979924459531</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2541,20 +2349,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_46.fasta</t>
+          <t>label_UMGS149_51.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08673777666342226</v>
+        <v>0.4734470579589661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9132622230720344</v>
+        <v>0.5084681763318232</v>
       </c>
       <c r="D30" t="n">
-        <v>2.645432530605432e-10</v>
+        <v>0.01808476570921067</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9132622230720344</v>
+        <v>0.5084681763318232</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2565,20 +2373,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_47.fasta</t>
+          <t>label_UMGS149_7.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.07975460103139051</v>
+        <v>0.002956328548675639</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9202453989667249</v>
+        <v>0.9969043041592269</v>
       </c>
       <c r="D31" t="n">
-        <v>1.884582679413166e-12</v>
+        <v>0.0001393672920974069</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9202453989667249</v>
+        <v>0.9969043041592269</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2589,20 +2397,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_48.fasta</t>
+          <t>label_UMGS149_0.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03892989057613952</v>
+        <v>0.01062986289337805</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9610701093864753</v>
+        <v>0.9889577507683537</v>
       </c>
       <c r="D32" t="n">
-        <v>3.738512055084899e-11</v>
+        <v>0.0004123863382681505</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9610701093864753</v>
+        <v>0.9889577507683537</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2613,20 +2421,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_10.fasta</t>
+          <t>label_UMGS149_11.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001667354584409227</v>
+        <v>0.002012077324051254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9982032318233447</v>
+        <v>0.9972180999045058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001294135922461294</v>
+        <v>0.000769822771442954</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9982032318233447</v>
+        <v>0.9972180999045058</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2637,20 +2445,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_19.fasta</t>
+          <t>label_UMGS149_16.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.003883353741126807</v>
+        <v>0.0002397666270527646</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9959578302323286</v>
+        <v>0.9995499163117734</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001588160265443861</v>
+        <v>0.0002103170611739162</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9959578302323286</v>
+        <v>0.9995499163117734</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2661,20 +2469,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_21.fasta</t>
+          <t>label_UMGS149_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02141031298547685</v>
+        <v>4.165781067799695e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9783920320083631</v>
+        <v>0.9996883828222473</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001976550061599947</v>
+        <v>0.0002699593670747753</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9783920320083631</v>
+        <v>0.9996883828222473</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2685,20 +2493,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_25.fasta</t>
+          <t>label_UMGS149_22.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.002059832412304308</v>
+        <v>5.376139919682652e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9977042715642047</v>
+        <v>0.9996751288372346</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0002358960234911799</v>
+        <v>0.0002711097635685776</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9977042715642047</v>
+        <v>0.9996751288372346</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2709,20 +2517,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_34.fasta</t>
+          <t>label_UMGS149_23.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.009461543978582582</v>
+        <v>0.0001000021010230156</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9900220180409834</v>
+        <v>0.9995555678389696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000516437980434004</v>
+        <v>0.0003444300600073596</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9900220180409834</v>
+        <v>0.9995555678389696</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2733,20 +2541,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_36.fasta</t>
+          <t>label_UMGS149_26.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06056772509527114</v>
+        <v>9.093619213555997e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9390817418596726</v>
+        <v>0.9994306485303529</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0003505330450563494</v>
+        <v>0.0004784152775115304</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9390817418596726</v>
+        <v>0.9994306485303529</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2757,20 +2565,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_4.fasta</t>
+          <t>label_UMGS149_3.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.003858611867364685</v>
+        <v>0.01509320404770297</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9959979924459531</v>
+        <v>0.9843476449908541</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000143395686682384</v>
+        <v>0.0005591509614427808</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9959979924459531</v>
+        <v>0.9843476449908541</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2781,20 +2589,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_51.fasta</t>
+          <t>label_UMGS149_30.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4734470579589661</v>
+        <v>1.238969332656655e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5084681763318232</v>
+        <v>0.9990409917598048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01808476570921067</v>
+        <v>0.000946618546868629</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5084681763318232</v>
+        <v>0.9990409917598048</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2805,20 +2613,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_7.fasta</t>
+          <t>label_UMGS149_43.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002956328548675639</v>
+        <v>0.0001242394714540655</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9969043041592269</v>
+        <v>0.9961404531445263</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001393672920974069</v>
+        <v>0.003735307384019635</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9969043041592269</v>
+        <v>0.9961404531445263</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2829,20 +2637,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_0.fasta</t>
+          <t>label_UMGS149_5.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01062986289337805</v>
+        <v>0.001443898408129587</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9889577507683537</v>
+        <v>0.9981136933834731</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0004123863382681505</v>
+        <v>0.0004424082083973057</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9889577507683537</v>
+        <v>0.9981136933834731</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2853,20 +2661,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_11.fasta</t>
+          <t>label_UMGS149_9.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.002012077324051254</v>
+        <v>0.00374137636730604</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9972180999045058</v>
+        <v>0.9958397288066554</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000769822771442954</v>
+        <v>0.0004188948260385971</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9972180999045058</v>
+        <v>0.9958397288066554</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2877,20 +2685,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_16.fasta</t>
+          <t>label_UMGS149_14.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0002397666270527646</v>
+        <v>0.006188620658917041</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9995499163117734</v>
+        <v>0.9876227586821659</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002103170611739162</v>
+        <v>0.006188620658917048</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9995499163117734</v>
+        <v>0.9876227586821659</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2901,20 +2709,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_17.fasta</t>
+          <t>label_UMGS149_24.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.165781067799695e-05</v>
+        <v>0.01768541196860341</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9996883828222473</v>
+        <v>0.9646291760627932</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002699593670747753</v>
+        <v>0.01768541196860341</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9996883828222473</v>
+        <v>0.9646291760627932</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2925,20 +2733,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_22.fasta</t>
+          <t>label_UMGS149_28.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.376139919682652e-05</v>
+        <v>0.004959737101514376</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9996751288372346</v>
+        <v>0.9900805257969713</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0002711097635685776</v>
+        <v>0.004959737101514391</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9996751288372346</v>
+        <v>0.9900805257969713</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2949,20 +2757,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_23.fasta</t>
+          <t>label_UMGS149_39.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0001000021010230156</v>
+        <v>0.01073456831821603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9995555678389696</v>
+        <v>0.978530863363568</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003444300600073596</v>
+        <v>0.01073456831821603</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9995555678389696</v>
+        <v>0.978530863363568</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2973,20 +2781,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_26.fasta</t>
+          <t>label_UMGS149_45.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.093619213555997e-05</v>
+        <v>0.02203545962909777</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9994306485303529</v>
+        <v>0.9559290807418045</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0004784152775115304</v>
+        <v>0.02203545962909777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9994306485303529</v>
+        <v>0.9559290807418045</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2997,262 +2805,22 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS149_3.fasta</t>
+          <t>label_UMGS149_50.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01509320404770297</v>
+        <v>0.2298372518869251</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9843476449908541</v>
+        <v>0.5403254962261499</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0005591509614427808</v>
+        <v>0.2298372518869251</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9843476449908541</v>
+        <v>0.5403254962261499</v>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_30.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1.238969332656655e-05</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.9990409917598048</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.000946618546868629</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9990409917598048</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_43.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0001242394714540655</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.9961404531445263</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.003735307384019635</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.9961404531445263</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_5.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.001443898408129587</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9981136933834731</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0004424082083973057</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9981136933834731</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_9.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.00374137636730604</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.9958397288066554</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0004188948260385971</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.9958397288066554</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_14.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.006188620658917041</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.9876227586821659</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.006188620658917048</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9876227586821659</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_24.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.01768541196860341</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.9646291760627932</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.01768541196860341</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9646291760627932</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_28.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.004959737101514376</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.9900805257969713</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.004959737101514391</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9900805257969713</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_39.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.01073456831821603</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.978530863363568</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.01073456831821603</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.978530863363568</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_45.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.02203545962909777</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9559290807418045</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.02203545962909777</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9559290807418045</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS149_50.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.2298372518869251</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5403254962261499</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.2298372518869251</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5403254962261499</v>
-      </c>
-      <c r="F59" t="inlineStr">
         <is>
           <t>s__51-20 sp900539605</t>
         </is>
@@ -3269,7 +2837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3576,20 +3144,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_0.fasta</t>
+          <t>label_UMGS418_12.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002667640303906565</v>
+        <v>2.03289926228011e-07</v>
       </c>
       <c r="C13" t="n">
-        <v>3.234900637249412e-06</v>
+        <v>6.932187834999981e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9973291247954562</v>
+        <v>0.9999991034912903</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9973291247954562</v>
+        <v>0.9999991034912903</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -3600,20 +3168,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_17.fasta</t>
+          <t>label_UMGS418_16.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.226374692454832e-05</v>
+        <v>1.268204045449522e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.899832744420032e-05</v>
+        <v>9.922964269673417e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999687379256312</v>
+        <v>0.9998995021532577</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999687379256312</v>
+        <v>0.9998995021532577</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3624,20 +3192,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_18.fasta</t>
+          <t>label_UMGS418_23.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001622911184799688</v>
+        <v>2.489955390012097e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001889695299854697</v>
+        <v>9.096831485135832e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9964873935153455</v>
+        <v>0.9999908782689609</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9964873935153455</v>
+        <v>0.9999908782689609</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3648,20 +3216,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_19.fasta</t>
+          <t>label_UMGS418_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0003988255411099936</v>
+        <v>6.469782541651755e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001808523262030488</v>
+        <v>1.930724586850616e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9994203221326869</v>
+        <v>0.9999933371449996</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994203221326869</v>
+        <v>0.9999933371449996</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3672,20 +3240,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_20.fasta</t>
+          <t>label_UMGS418_37.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0001671954073404694</v>
+        <v>1.221973382805248e-11</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002646457910825108</v>
+        <v>0.001957385112605257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999568158801577</v>
+        <v>0.9980426148751751</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999568158801577</v>
+        <v>0.9980426148751751</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3696,20 +3264,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_35.fasta</t>
+          <t>label_UMGS418_42.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.924831878485824e-08</v>
+        <v>4.777070341220483e-10</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001592567884163226</v>
+        <v>0.0008771857761364733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998406739632649</v>
+        <v>0.9991228137461564</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998406739632649</v>
+        <v>0.9991228137461564</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3720,20 +3288,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_36.fasta</t>
+          <t>label_UMGS418_9.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.695908326565115e-10</v>
+        <v>7.014919822556758e-07</v>
       </c>
       <c r="C19" t="n">
-        <v>7.816711765470833e-06</v>
+        <v>1.356410788241875e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999921825186437</v>
+        <v>0.999999162866939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999921825186437</v>
+        <v>0.999999162866939</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3744,20 +3312,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_4.fasta</t>
+          <t>label_UMGS418_1.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.094695001531441e-05</v>
+        <v>0.003672574119939299</v>
       </c>
       <c r="C20" t="n">
-        <v>6.861788089388912e-07</v>
+        <v>2.17407827007928e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999483668711757</v>
+        <v>0.9963252518017907</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999483668711757</v>
+        <v>0.9963252518017907</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3768,20 +3336,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_41.fasta</t>
+          <t>label_UMGS418_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001998318716494802</v>
+        <v>0.002007611658260933</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08160284860378425</v>
+        <v>1.873911582650202e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9181973195245662</v>
+        <v>0.9979736492259127</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9181973195245662</v>
+        <v>0.9979736492259127</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3792,20 +3360,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_43.fasta</t>
+          <t>label_UMGS418_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003452502997510903</v>
+        <v>0.003471381989245293</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003455800072818979</v>
+        <v>5.680999281438014e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999309169692967</v>
+        <v>0.9965229370114732</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999309169692967</v>
+        <v>0.9965229370114732</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3816,20 +3384,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_12.fasta</t>
+          <t>label_UMGS418_28.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.03289926228011e-07</v>
+        <v>0.001217884913651181</v>
       </c>
       <c r="C23" t="n">
-        <v>6.932187834999981e-07</v>
+        <v>0.0001417276778585905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999991034912903</v>
+        <v>0.9986403874084901</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999991034912903</v>
+        <v>0.9986403874084901</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3840,20 +3408,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_16.fasta</t>
+          <t>label_UMGS418_31.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.268204045449522e-06</v>
+        <v>0.001509259688641226</v>
       </c>
       <c r="C24" t="n">
-        <v>9.922964269673417e-05</v>
+        <v>0.08752321077416973</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998995021532577</v>
+        <v>0.9109675295371891</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998995021532577</v>
+        <v>0.9109675295371891</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3864,20 +3432,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_23.fasta</t>
+          <t>label_UMGS418_33.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.489955390012097e-08</v>
+        <v>0.001256122233107682</v>
       </c>
       <c r="C25" t="n">
-        <v>9.096831485135832e-06</v>
+        <v>0.02260894942880348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999908782689609</v>
+        <v>0.9761349283380889</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999908782689609</v>
+        <v>0.9761349283380889</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3888,20 +3456,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_3.fasta</t>
+          <t>label_UMGS418_34.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.469782541651755e-06</v>
+        <v>0.001383755827318468</v>
       </c>
       <c r="C26" t="n">
-        <v>1.930724586850616e-07</v>
+        <v>3.775763866628645e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999933371449996</v>
+        <v>0.9985784865340153</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999933371449996</v>
+        <v>0.9985784865340153</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3912,20 +3480,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_37.fasta</t>
+          <t>label_UMGS418_5.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.221973382805248e-11</v>
+        <v>0.004209288564664937</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001957385112605257</v>
+        <v>4.103943595707617e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9980426148751751</v>
+        <v>0.995749671999378</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9980426148751751</v>
+        <v>0.995749671999378</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3936,20 +3504,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_42.fasta</t>
+          <t>label_UMGS418_6.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.777070341220483e-10</v>
+        <v>0.002380034184335121</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0008771857761364733</v>
+        <v>1.698777073151411e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9991228137461564</v>
+        <v>0.9976182670385917</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9991228137461564</v>
+        <v>0.9976182670385917</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3960,20 +3528,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_9.fasta</t>
+          <t>label_UMGS418_8.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.014919822556758e-07</v>
+        <v>0.002489618440341575</v>
       </c>
       <c r="C29" t="n">
-        <v>1.356410788241875e-07</v>
+        <v>1.317717695965217e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.999999162866939</v>
+        <v>0.9975090638419626</v>
       </c>
       <c r="E29" t="n">
-        <v>0.999999162866939</v>
+        <v>0.9975090638419626</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3984,20 +3552,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_1.fasta</t>
+          <t>label_UMGS418_11.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003672574119939299</v>
+        <v>0.01052032126084386</v>
       </c>
       <c r="C30" t="n">
-        <v>2.17407827007928e-06</v>
+        <v>0.02056852730630203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9963252518017907</v>
+        <v>0.9689111514328542</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9963252518017907</v>
+        <v>0.9689111514328542</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4008,20 +3576,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_14.fasta</t>
+          <t>label_UMGS418_15.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002007611658260933</v>
+        <v>7.304172555667876e-09</v>
       </c>
       <c r="C31" t="n">
-        <v>1.873911582650202e-05</v>
+        <v>2.443655787995563e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9979736492259127</v>
+        <v>0.9999975490400395</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9979736492259127</v>
+        <v>0.9999975490400395</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -4032,20 +3600,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_2.fasta</t>
+          <t>label_UMGS418_24.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003471381989245293</v>
+        <v>1.466872142150988e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>5.680999281438014e-06</v>
+        <v>8.186806458407394e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9965229370114732</v>
+        <v>0.9999181172666944</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9965229370114732</v>
+        <v>0.9999181172666944</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -4056,20 +3624,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_28.fasta</t>
+          <t>label_UMGS418_26.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001217884913651181</v>
+        <v>5.328830998811186e-09</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001417276778585905</v>
+        <v>7.078532977119942e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9986403874084901</v>
+        <v>0.9999292093413977</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9986403874084901</v>
+        <v>0.9999292093413977</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4080,20 +3648,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_31.fasta</t>
+          <t>label_UMGS418_27.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001509259688641226</v>
+        <v>0.0005989603109415194</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08752321077416973</v>
+        <v>0.0006634327780907342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9109675295371891</v>
+        <v>0.9987376069109677</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9109675295371891</v>
+        <v>0.9987376069109677</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4104,20 +3672,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_33.fasta</t>
+          <t>label_UMGS418_29.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001256122233107682</v>
+        <v>8.552502169369538e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02260894942880348</v>
+        <v>0.002145384201476168</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9761349283380889</v>
+        <v>0.9978545302735021</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9761349283380889</v>
+        <v>0.9978545302735021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4128,20 +3696,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_34.fasta</t>
+          <t>label_UMGS418_30.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001383755827318468</v>
+        <v>1.06742803419167e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>3.775763866628645e-05</v>
+        <v>0.00944058236761584</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9985784865340153</v>
+        <v>0.99055835020435</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9985784865340153</v>
+        <v>0.99055835020435</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4152,20 +3720,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_5.fasta</t>
+          <t>label_UMGS418_44.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.004209288564664937</v>
+        <v>1.081696097465431e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>4.103943595707617e-05</v>
+        <v>0.008022686017082404</v>
       </c>
       <c r="D37" t="n">
-        <v>0.995749671999378</v>
+        <v>0.9919772058133079</v>
       </c>
       <c r="E37" t="n">
-        <v>0.995749671999378</v>
+        <v>0.9919772058133079</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4176,20 +3744,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_6.fasta</t>
+          <t>label_UMGS418_10.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002380034184335121</v>
+        <v>2.219875173806337e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>1.698777073151411e-06</v>
+        <v>0.000773292833059409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9976182670385917</v>
+        <v>0.9992267071669183</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9976182670385917</v>
+        <v>0.9992267071669183</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4200,20 +3768,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_8.fasta</t>
+          <t>label_UMGS418_13.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.002489618440341575</v>
+        <v>2.220280880348056e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>1.317717695965217e-06</v>
+        <v>0.0002233226549887332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9975090638419626</v>
+        <v>0.9997766773449891</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9975090638419626</v>
+        <v>0.9997766773449891</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4224,44 +3792,44 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_11.fasta</t>
+          <t>label_UMGS418_21.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01052032126084386</v>
+        <v>0.1183180305880308</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02056852730630203</v>
+        <v>0.7633639388239384</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9689111514328542</v>
+        <v>0.1183180305880308</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9689111514328542</v>
+        <v>0.7633639388239384</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>s__51-20 sp900542055</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_15.fasta</t>
+          <t>label_UMGS418_22.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.304172555667876e-09</v>
+        <v>2.219968100441294e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>2.443655787995563e-06</v>
+        <v>0.09238317902521226</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999975490400395</v>
+        <v>0.9076168209747655</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999975490400395</v>
+        <v>0.9076168209747655</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4272,20 +3840,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_24.fasta</t>
+          <t>label_UMGS418_25.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.466872142150988e-08</v>
+        <v>2.220355665966603e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>8.186806458407394e-05</v>
+        <v>0.0001221647891185668</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9999181172666944</v>
+        <v>0.9998778352108593</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9999181172666944</v>
+        <v>0.9998778352108593</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4296,20 +3864,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_26.fasta</t>
+          <t>label_UMGS418_32.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.328830998811186e-09</v>
+        <v>2.219947241408265e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>7.078532977119942e-05</v>
+        <v>0.0006754508425038203</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999292093413977</v>
+        <v>0.9993245491574739</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9999292093413977</v>
+        <v>0.9993245491574739</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4320,20 +3888,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_27.fasta</t>
+          <t>label_UMGS418_38.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0005989603109415194</v>
+        <v>2.220214080434606e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0006634327780907342</v>
+        <v>0.0003137365859499242</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9987376069109677</v>
+        <v>0.9996862634140278</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9987376069109677</v>
+        <v>0.9996862634140278</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4344,20 +3912,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_29.fasta</t>
+          <t>label_UMGS418_39.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.552502169369538e-08</v>
+        <v>2.219828756067736e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.002145384201476168</v>
+        <v>0.01166667469598092</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9978545302735021</v>
+        <v>0.9883333253039969</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9978545302735021</v>
+        <v>0.9883333253039969</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4368,20 +3936,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_30.fasta</t>
+          <t>label_UMGS418_40.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.06742803419167e-06</v>
+        <v>2.219818379966664e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00944058236761584</v>
+        <v>0.00692422574702752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.99055835020435</v>
+        <v>0.9930757742529503</v>
       </c>
       <c r="E46" t="n">
-        <v>0.99055835020435</v>
+        <v>0.9930757742529503</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4392,20 +3960,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_44.fasta</t>
+          <t>label_UMGS418_45.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.081696097465431e-07</v>
+        <v>2.220444838361589e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.008022686017082404</v>
+        <v>1.636016280297644e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9919772058133079</v>
+        <v>0.9999983639836975</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9919772058133079</v>
+        <v>0.9999983639836975</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4416,262 +3984,22 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS418_10.fasta</t>
+          <t>label_UMGS418_7.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.219875173806337e-14</v>
+        <v>2.219827240915139e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000773292833059409</v>
+        <v>0.008971674684056796</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9992267071669183</v>
+        <v>0.991028325315921</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9992267071669183</v>
+        <v>0.991028325315921</v>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_13.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2.220280880348056e-14</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0002233226549887332</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9997766773449891</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.9997766773449891</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_21.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1183180305880308</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.7633639388239384</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1183180305880308</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7633639388239384</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900539605</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_22.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2.219968100441294e-14</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.09238317902521226</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9076168209747655</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.9076168209747655</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_25.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2.220355665966603e-14</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0001221647891185668</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9998778352108593</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9998778352108593</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_32.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2.219947241408265e-14</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0006754508425038203</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9993245491574739</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.9993245491574739</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_38.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2.220214080434606e-14</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.0003137365859499242</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9996862634140278</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9996862634140278</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_39.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2.219828756067736e-14</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.01166667469598092</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9883333253039969</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9883333253039969</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_40.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2.219818379966664e-14</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.00692422574702752</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9930757742529503</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9930757742529503</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_45.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2.220444838361589e-14</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.636016280297644e-06</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9999983639836975</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.9999983639836975</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__51-20 sp900542055</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS418_7.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2.219827240915139e-14</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.008971674684056796</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.991028325315921</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.991028325315921</v>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>s__51-20 sp900542055</t>
         </is>
